--- a/public/templates/template_aset_kendaraan - Copy.xlsx
+++ b/public/templates/template_aset_kendaraan - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bismillah_sip_aset\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36609E65-F71C-448C-87D1-D71816B75588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1784D2BE-051B-41FB-A15C-400198ACC156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4CBD18AC-1254-4C8F-9B02-8616AC47CBCC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>id_status_aset</t>
   </si>
@@ -130,6 +130,54 @@
   </si>
   <si>
     <t>R 2086 GB</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>MHG000SK021469</t>
+  </si>
+  <si>
+    <t>GGE-1021673</t>
+  </si>
+  <si>
+    <t>22/11/2008</t>
+  </si>
+  <si>
+    <t>A3554895</t>
+  </si>
+  <si>
+    <t>R 5572 HS</t>
+  </si>
+  <si>
+    <t>Mobil</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Innova</t>
+  </si>
+  <si>
+    <t>26/11/2026</t>
+  </si>
+  <si>
+    <t>MHG000SK021470</t>
+  </si>
+  <si>
+    <t>GGE-1021674</t>
+  </si>
+  <si>
+    <t>22/11/2009</t>
+  </si>
+  <si>
+    <t>A3554896</t>
+  </si>
+  <si>
+    <t>R 5511 AB</t>
+  </si>
+  <si>
+    <t>Mobilio</t>
   </si>
 </sst>
 </file>
@@ -494,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25031A6-9C77-4809-B5A1-83F15A6FEF5C}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +718,106 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>2020</v>
+      </c>
+      <c r="K4">
+        <v>2021</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <v>14000002</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>2020</v>
+      </c>
+      <c r="K5">
+        <v>2021</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5">
+        <v>14000003</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
